--- a/testcases/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
+++ b/testcases/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhumida S\eclipse-workspace\TutorialsNinjaAutomation\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170B390-B76D-48BF-BD27-5FD724F3B110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10801D09-20F8-4845-BC7D-C9753DB3A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -9674,14 +9674,14 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H9" s="41" t="s">
         <v>7</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H10" s="42"/>
       <c r="I10" s="1" t="s">
         <v>19</v>
@@ -9715,7 +9715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H11" s="42"/>
       <c r="I11" s="1" t="s">
         <v>21</v>
@@ -9724,12 +9724,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H12" s="42"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H13" s="43"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9751,22 +9751,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>709</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>712</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>717</v>
       </c>
@@ -9897,7 +9897,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>725</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>729</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>732</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>735</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>739</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>740</v>
       </c>
@@ -10099,22 +10099,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>749</v>
       </c>
@@ -10191,7 +10191,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>752</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>757</v>
       </c>
@@ -10245,7 +10245,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>760</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>763</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>767</v>
       </c>
@@ -10326,7 +10326,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>770</v>
       </c>
@@ -10353,7 +10353,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>773</v>
       </c>
@@ -10380,7 +10380,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>777</v>
       </c>
@@ -10407,7 +10407,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>781</v>
       </c>
@@ -10434,7 +10434,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>785</v>
       </c>
@@ -10461,7 +10461,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>786</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>789</v>
       </c>
@@ -10515,7 +10515,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>790</v>
       </c>
@@ -10542,7 +10542,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>791</v>
       </c>
@@ -10569,7 +10569,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>792</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>793</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>794</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>795</v>
       </c>
@@ -10717,22 +10717,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>824</v>
       </c>
@@ -10809,7 +10809,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>830</v>
       </c>
@@ -10836,7 +10836,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>833</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>836</v>
       </c>
@@ -10890,7 +10890,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>838</v>
       </c>
@@ -10917,7 +10917,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>841</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>845</v>
       </c>
@@ -10971,7 +10971,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>849</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>853</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>857</v>
       </c>
@@ -11052,7 +11052,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>861</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>865</v>
       </c>
@@ -11106,7 +11106,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>869</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>871</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>879</v>
       </c>
@@ -11187,7 +11187,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>882</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>889</v>
       </c>
@@ -11241,7 +11241,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>896</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>897</v>
       </c>
@@ -11295,7 +11295,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>899</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>903</v>
       </c>
@@ -11349,7 +11349,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>909</v>
       </c>
@@ -11376,7 +11376,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>915</v>
       </c>
@@ -11403,7 +11403,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>916</v>
       </c>
@@ -11430,7 +11430,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>917</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>918</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>919</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>939</v>
       </c>
@@ -11538,7 +11538,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>942</v>
       </c>
@@ -11565,7 +11565,7 @@
       <c r="J31" s="33"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>946</v>
       </c>
@@ -11592,7 +11592,7 @@
       <c r="J32" s="33"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>952</v>
       </c>
@@ -11619,7 +11619,7 @@
       <c r="J33" s="33"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>953</v>
       </c>
@@ -11646,7 +11646,7 @@
       <c r="J34" s="33"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>954</v>
       </c>
@@ -11713,22 +11713,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>962</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>963</v>
       </c>
@@ -11832,7 +11832,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>964</v>
       </c>
@@ -11859,7 +11859,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>965</v>
       </c>
@@ -11886,7 +11886,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>966</v>
       </c>
@@ -11913,7 +11913,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>967</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>968</v>
       </c>
@@ -11967,7 +11967,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>969</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>970</v>
       </c>
@@ -12021,7 +12021,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>971</v>
       </c>
@@ -12089,22 +12089,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -12154,7 +12154,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1002</v>
       </c>
@@ -12181,7 +12181,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1008</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1012</v>
       </c>
@@ -12235,7 +12235,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1016</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1019</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1021</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1027</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1030</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1033</v>
       </c>
@@ -12397,7 +12397,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1036</v>
       </c>
@@ -12424,7 +12424,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1037</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1038</v>
       </c>
@@ -12478,7 +12478,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1039</v>
       </c>
@@ -12505,7 +12505,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="246" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1040</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="249" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1041</v>
       </c>
@@ -12559,7 +12559,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="290.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="290.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1060</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1067</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1071</v>
       </c>
@@ -12640,7 +12640,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1072</v>
       </c>
@@ -12667,7 +12667,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1073</v>
       </c>
@@ -12735,22 +12735,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -12800,7 +12800,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1080</v>
       </c>
@@ -12827,7 +12827,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1084</v>
       </c>
@@ -12854,7 +12854,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1087</v>
       </c>
@@ -12881,7 +12881,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1089</v>
       </c>
@@ -12908,7 +12908,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1095</v>
       </c>
@@ -12935,7 +12935,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1099</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1102</v>
       </c>
@@ -12989,7 +12989,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1107</v>
       </c>
@@ -13084,22 +13084,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -13149,7 +13149,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>1114</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1119</v>
       </c>
@@ -13203,7 +13203,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1122</v>
       </c>
@@ -13230,7 +13230,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13257,7 +13257,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1138</v>
       </c>
@@ -13311,7 +13311,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1141</v>
       </c>
@@ -13338,7 +13338,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1145</v>
       </c>
@@ -13365,7 +13365,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1148</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1149</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1150</v>
       </c>
@@ -13446,7 +13446,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1161</v>
       </c>
@@ -13473,7 +13473,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1172</v>
       </c>
@@ -13541,22 +13541,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1163</v>
       </c>
@@ -13633,7 +13633,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1164</v>
       </c>
@@ -13660,7 +13660,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1170</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1176</v>
       </c>
@@ -13714,7 +13714,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1180</v>
       </c>
@@ -13741,7 +13741,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1183</v>
       </c>
@@ -13768,7 +13768,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1188</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1192</v>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1196</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1200</v>
       </c>
@@ -13876,7 +13876,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1204</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1207</v>
       </c>
@@ -13930,7 +13930,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1211</v>
       </c>
@@ -13998,22 +13998,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1215</v>
       </c>
@@ -14090,7 +14090,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1216</v>
       </c>
@@ -14117,7 +14117,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14144,7 +14144,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1218</v>
       </c>
@@ -14171,7 +14171,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1219</v>
       </c>
@@ -14198,7 +14198,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14225,7 +14225,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1221</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1222</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1224</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1226</v>
       </c>
@@ -14387,7 +14387,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1227</v>
       </c>
@@ -14414,7 +14414,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1265</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14468,7 +14468,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="261" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1274</v>
       </c>
@@ -14495,7 +14495,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1278</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14549,7 +14549,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1286</v>
       </c>
@@ -14576,7 +14576,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1290</v>
       </c>
@@ -14603,7 +14603,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14671,22 +14671,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1301</v>
       </c>
@@ -14790,7 +14790,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1304</v>
       </c>
@@ -14817,7 +14817,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1307</v>
       </c>
@@ -14844,7 +14844,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1310</v>
       </c>
@@ -14871,7 +14871,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1314</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1318</v>
       </c>
@@ -14925,7 +14925,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1321</v>
       </c>
@@ -14952,7 +14952,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1325</v>
       </c>
@@ -14979,7 +14979,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1326</v>
       </c>
@@ -15006,7 +15006,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1331</v>
       </c>
@@ -15100,16 +15100,16 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="76.08984375" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="76.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2077</v>
       </c>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2079</v>
       </c>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="C3" s="44"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>2081</v>
       </c>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="C4" s="44"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2083</v>
       </c>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="C5" s="44"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>2084</v>
       </c>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="C6" s="44"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>2086</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="C7" s="44"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>2088</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>2130</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>149</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>221</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>270</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>380</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>474</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>567</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>708</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>746</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>825</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>972</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>1003</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>1081</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>1115</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>1162</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>1341</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>1342</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>1367</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>1378</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>1421</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>1523</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>1524</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>1575</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>1620</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>1655</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>1731</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>1781</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>1840</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>1917</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>2026</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>2065</v>
       </c>
@@ -15763,22 +15763,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -15828,7 +15828,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>1343</v>
       </c>
@@ -15855,7 +15855,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15882,7 +15882,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1352</v>
       </c>
@@ -15909,7 +15909,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1356</v>
       </c>
@@ -15936,7 +15936,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1360</v>
       </c>
@@ -15963,7 +15963,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1364</v>
       </c>
@@ -15990,7 +15990,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1365</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1366</v>
       </c>
@@ -16084,22 +16084,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -16149,7 +16149,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1377</v>
       </c>
@@ -16176,7 +16176,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1380</v>
       </c>
@@ -16203,7 +16203,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1384</v>
       </c>
@@ -16230,7 +16230,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1389</v>
       </c>
@@ -16257,7 +16257,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1393</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1397</v>
       </c>
@@ -16311,7 +16311,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1401</v>
       </c>
@@ -16338,7 +16338,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1405</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1406</v>
       </c>
@@ -16392,7 +16392,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1407</v>
       </c>
@@ -16419,7 +16419,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1408</v>
       </c>
@@ -16486,22 +16486,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -16551,7 +16551,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1420</v>
       </c>
@@ -16578,7 +16578,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1422</v>
       </c>
@@ -16605,7 +16605,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1423</v>
       </c>
@@ -16632,7 +16632,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1424</v>
       </c>
@@ -16659,7 +16659,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1425</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1440</v>
       </c>
@@ -16713,7 +16713,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1445</v>
       </c>
@@ -16740,7 +16740,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1448</v>
       </c>
@@ -16767,7 +16767,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1452</v>
       </c>
@@ -16794,7 +16794,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1457</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1458</v>
       </c>
@@ -16848,7 +16848,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1459</v>
       </c>
@@ -16875,7 +16875,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1460</v>
       </c>
@@ -16942,22 +16942,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -17007,7 +17007,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1473</v>
       </c>
@@ -17034,7 +17034,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1477</v>
       </c>
@@ -17061,7 +17061,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1480</v>
       </c>
@@ -17088,7 +17088,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1484</v>
       </c>
@@ -17115,7 +17115,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1489</v>
       </c>
@@ -17142,7 +17142,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1492</v>
       </c>
@@ -17169,7 +17169,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1496</v>
       </c>
@@ -17196,7 +17196,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1497</v>
       </c>
@@ -17223,7 +17223,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1498</v>
       </c>
@@ -17250,7 +17250,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1499</v>
       </c>
@@ -17317,22 +17317,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -17382,7 +17382,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1513</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1514</v>
       </c>
@@ -17436,7 +17436,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1516</v>
       </c>
@@ -17463,7 +17463,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1526</v>
       </c>
@@ -17490,7 +17490,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1531</v>
       </c>
@@ -17517,7 +17517,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1534</v>
       </c>
@@ -17544,7 +17544,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1539</v>
       </c>
@@ -17571,7 +17571,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1543</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1544</v>
       </c>
@@ -17625,7 +17625,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1545</v>
       </c>
@@ -17652,7 +17652,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1546</v>
       </c>
@@ -17679,7 +17679,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1551</v>
       </c>
@@ -17706,7 +17706,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1555</v>
       </c>
@@ -17733,7 +17733,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1558</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1559</v>
       </c>
@@ -17787,7 +17787,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1560</v>
       </c>
@@ -17814,7 +17814,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1561</v>
       </c>
@@ -17881,22 +17881,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -17946,7 +17946,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1574</v>
       </c>
@@ -17973,7 +17973,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1580</v>
       </c>
@@ -18000,7 +18000,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1583</v>
       </c>
@@ -18027,7 +18027,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1586</v>
       </c>
@@ -18054,7 +18054,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1590</v>
       </c>
@@ -18081,7 +18081,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1595</v>
       </c>
@@ -18108,7 +18108,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1598</v>
       </c>
@@ -18135,7 +18135,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1603</v>
       </c>
@@ -18162,7 +18162,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1604</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1605</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1606</v>
       </c>
@@ -18283,22 +18283,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1619</v>
       </c>
@@ -18375,7 +18375,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1624</v>
       </c>
@@ -18402,7 +18402,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1627</v>
       </c>
@@ -18429,7 +18429,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1632</v>
       </c>
@@ -18456,7 +18456,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1635</v>
       </c>
@@ -18483,7 +18483,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1638</v>
       </c>
@@ -18510,7 +18510,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1639</v>
       </c>
@@ -18537,7 +18537,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1640</v>
       </c>
@@ -18564,7 +18564,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1641</v>
       </c>
@@ -18631,22 +18631,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -18696,7 +18696,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1654</v>
       </c>
@@ -18723,7 +18723,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1659</v>
       </c>
@@ -18750,7 +18750,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1663</v>
       </c>
@@ -18777,7 +18777,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1666</v>
       </c>
@@ -18804,7 +18804,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1669</v>
       </c>
@@ -18831,7 +18831,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1673</v>
       </c>
@@ -18858,7 +18858,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1677</v>
       </c>
@@ -18885,7 +18885,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1681</v>
       </c>
@@ -18912,7 +18912,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1686</v>
       </c>
@@ -18939,7 +18939,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="260.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1689</v>
       </c>
@@ -18966,7 +18966,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1690</v>
       </c>
@@ -18993,7 +18993,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1691</v>
       </c>
@@ -19020,7 +19020,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1692</v>
       </c>
@@ -19047,7 +19047,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1705</v>
       </c>
@@ -19074,7 +19074,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1710</v>
       </c>
@@ -19101,7 +19101,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1714</v>
       </c>
@@ -19128,7 +19128,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1715</v>
       </c>
@@ -19155,7 +19155,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1716</v>
       </c>
@@ -19182,7 +19182,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1717</v>
       </c>
@@ -19209,7 +19209,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1891</v>
       </c>
@@ -19236,7 +19236,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>1892</v>
       </c>
@@ -19263,7 +19263,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1893</v>
       </c>
@@ -19290,7 +19290,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1894</v>
       </c>
@@ -19317,7 +19317,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1895</v>
       </c>
@@ -19344,7 +19344,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="232" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>1896</v>
       </c>
@@ -19371,7 +19371,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>1897</v>
       </c>
@@ -19398,7 +19398,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1898</v>
       </c>
@@ -19425,7 +19425,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1914</v>
       </c>
@@ -19452,7 +19452,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>1915</v>
       </c>
@@ -19519,22 +19519,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -19584,7 +19584,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>1730</v>
       </c>
@@ -19611,7 +19611,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1735</v>
       </c>
@@ -19638,7 +19638,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1738</v>
       </c>
@@ -19665,7 +19665,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1742</v>
       </c>
@@ -19692,7 +19692,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1745</v>
       </c>
@@ -19719,7 +19719,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1748</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1751</v>
       </c>
@@ -19773,7 +19773,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1755</v>
       </c>
@@ -19800,7 +19800,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1760</v>
       </c>
@@ -19827,7 +19827,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1764</v>
       </c>
@@ -19854,7 +19854,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1765</v>
       </c>
@@ -19881,7 +19881,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1766</v>
       </c>
@@ -19908,7 +19908,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1767</v>
       </c>
@@ -19975,22 +19975,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -20040,7 +20040,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1780</v>
       </c>
@@ -20067,7 +20067,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1785</v>
       </c>
@@ -20094,7 +20094,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="246.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="246.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1788</v>
       </c>
@@ -20121,7 +20121,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1791</v>
       </c>
@@ -20148,7 +20148,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1795</v>
       </c>
@@ -20175,7 +20175,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1799</v>
       </c>
@@ -20202,7 +20202,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1803</v>
       </c>
@@ -20229,7 +20229,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1807</v>
       </c>
@@ -20256,7 +20256,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1811</v>
       </c>
@@ -20283,7 +20283,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1815</v>
       </c>
@@ -20310,7 +20310,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1816</v>
       </c>
@@ -20337,7 +20337,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1817</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1818</v>
       </c>
@@ -20428,26 +20428,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="73.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -20497,7 +20497,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>100</v>
       </c>
@@ -20524,7 +20524,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>101</v>
       </c>
@@ -20551,7 +20551,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>102</v>
       </c>
@@ -20578,7 +20578,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>103</v>
       </c>
@@ -20605,7 +20605,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>104</v>
       </c>
@@ -20632,7 +20632,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>105</v>
       </c>
@@ -20659,7 +20659,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>106</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>107</v>
       </c>
@@ -20713,7 +20713,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>108</v>
       </c>
@@ -20740,7 +20740,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>109</v>
       </c>
@@ -20767,7 +20767,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>110</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>111</v>
       </c>
@@ -20821,7 +20821,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>112</v>
       </c>
@@ -20848,7 +20848,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>113</v>
       </c>
@@ -20875,7 +20875,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>114</v>
       </c>
@@ -20902,7 +20902,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>115</v>
       </c>
@@ -20929,7 +20929,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>116</v>
       </c>
@@ -20956,7 +20956,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>117</v>
       </c>
@@ -20983,7 +20983,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>118</v>
       </c>
@@ -21010,7 +21010,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>119</v>
       </c>
@@ -21037,7 +21037,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
@@ -21064,7 +21064,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>121</v>
       </c>
@@ -21091,7 +21091,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>122</v>
       </c>
@@ -21118,7 +21118,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>123</v>
       </c>
@@ -21145,7 +21145,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
@@ -21172,7 +21172,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>125</v>
       </c>
@@ -21199,7 +21199,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>273</v>
       </c>
@@ -21266,22 +21266,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -21331,7 +21331,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1831</v>
       </c>
@@ -21358,7 +21358,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="303.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1835</v>
       </c>
@@ -21385,7 +21385,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="290" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1839</v>
       </c>
@@ -21412,7 +21412,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1843</v>
       </c>
@@ -21439,7 +21439,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1846</v>
       </c>
@@ -21466,7 +21466,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1849</v>
       </c>
@@ -21493,7 +21493,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="319" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1852</v>
       </c>
@@ -21520,7 +21520,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1857</v>
       </c>
@@ -21547,7 +21547,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1858</v>
       </c>
@@ -21574,7 +21574,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1859</v>
       </c>
@@ -21601,7 +21601,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1860</v>
       </c>
@@ -21668,22 +21668,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -21733,7 +21733,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1916</v>
       </c>
@@ -21760,7 +21760,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1921</v>
       </c>
@@ -21787,7 +21787,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1924</v>
       </c>
@@ -21814,7 +21814,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1928</v>
       </c>
@@ -21841,7 +21841,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1932</v>
       </c>
@@ -21868,7 +21868,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1936</v>
       </c>
@@ -21895,7 +21895,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1940</v>
       </c>
@@ -21922,7 +21922,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1944</v>
       </c>
@@ -21949,7 +21949,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1948</v>
       </c>
@@ -21976,7 +21976,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1950</v>
       </c>
@@ -22003,7 +22003,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1955</v>
       </c>
@@ -22030,7 +22030,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1963</v>
       </c>
@@ -22057,7 +22057,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1964</v>
       </c>
@@ -22084,7 +22084,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1965</v>
       </c>
@@ -22111,7 +22111,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1966</v>
       </c>
@@ -22138,7 +22138,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1967</v>
       </c>
@@ -22205,22 +22205,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -22270,7 +22270,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1980</v>
       </c>
@@ -22297,7 +22297,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1984</v>
       </c>
@@ -22324,7 +22324,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1988</v>
       </c>
@@ -22351,7 +22351,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1993</v>
       </c>
@@ -22378,7 +22378,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>2017</v>
       </c>
@@ -22405,7 +22405,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1999</v>
       </c>
@@ -22432,7 +22432,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2002</v>
       </c>
@@ -22459,7 +22459,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2005</v>
       </c>
@@ -22486,7 +22486,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>2008</v>
       </c>
@@ -22513,7 +22513,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>2016</v>
       </c>
@@ -22540,7 +22540,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2018</v>
       </c>
@@ -22567,7 +22567,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>2019</v>
       </c>
@@ -22594,7 +22594,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>2020</v>
       </c>
@@ -22621,7 +22621,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>2021</v>
       </c>
@@ -22648,7 +22648,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>2022</v>
       </c>
@@ -22675,7 +22675,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2023</v>
       </c>
@@ -22702,7 +22702,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>2024</v>
       </c>
@@ -22729,7 +22729,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2025</v>
       </c>
@@ -22756,7 +22756,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>2048</v>
       </c>
@@ -22783,7 +22783,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2049</v>
       </c>
@@ -22810,7 +22810,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>2050</v>
       </c>
@@ -22837,7 +22837,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>2051</v>
       </c>
@@ -22904,22 +22904,22 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -22969,7 +22969,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2064</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2069</v>
       </c>
@@ -23023,7 +23023,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2073</v>
       </c>
@@ -23090,22 +23090,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -23155,7 +23155,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
@@ -23182,7 +23182,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -23209,7 +23209,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>128</v>
       </c>
@@ -23236,7 +23236,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>129</v>
       </c>
@@ -23263,7 +23263,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>130</v>
       </c>
@@ -23290,7 +23290,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>131</v>
       </c>
@@ -23317,7 +23317,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>132</v>
       </c>
@@ -23344,7 +23344,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>133</v>
       </c>
@@ -23371,7 +23371,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>134</v>
       </c>
@@ -23398,7 +23398,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>135</v>
       </c>
@@ -23425,7 +23425,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>136</v>
       </c>
@@ -23452,7 +23452,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>137</v>
       </c>
@@ -23479,7 +23479,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>138</v>
       </c>
@@ -23506,7 +23506,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>139</v>
       </c>
@@ -23533,7 +23533,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
@@ -23560,7 +23560,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="232" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>141</v>
       </c>
@@ -23587,7 +23587,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>142</v>
       </c>
@@ -23614,7 +23614,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -23641,7 +23641,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>144</v>
       </c>
@@ -23668,7 +23668,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>145</v>
       </c>
@@ -23695,7 +23695,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>146</v>
       </c>
@@ -23722,7 +23722,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>147</v>
       </c>
@@ -23749,7 +23749,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>148</v>
       </c>
@@ -23816,22 +23816,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -23881,7 +23881,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>220</v>
       </c>
@@ -23908,7 +23908,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>227</v>
       </c>
@@ -23935,7 +23935,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>231</v>
       </c>
@@ -23962,7 +23962,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>235</v>
       </c>
@@ -23989,7 +23989,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>239</v>
       </c>
@@ -24016,7 +24016,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>244</v>
       </c>
@@ -24043,7 +24043,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>248</v>
       </c>
@@ -24070,7 +24070,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
@@ -24097,7 +24097,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>258</v>
       </c>
@@ -24124,7 +24124,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>263</v>
       </c>
@@ -24151,7 +24151,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>264</v>
       </c>
@@ -24218,22 +24218,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -24283,7 +24283,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>269</v>
       </c>
@@ -24310,7 +24310,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
@@ -24337,7 +24337,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>283</v>
       </c>
@@ -24364,7 +24364,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>287</v>
       </c>
@@ -24391,7 +24391,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>297</v>
       </c>
@@ -24418,7 +24418,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>298</v>
       </c>
@@ -24445,7 +24445,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>299</v>
       </c>
@@ -24472,7 +24472,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>300</v>
       </c>
@@ -24499,7 +24499,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>301</v>
       </c>
@@ -24526,7 +24526,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>302</v>
       </c>
@@ -24553,7 +24553,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>303</v>
       </c>
@@ -24580,7 +24580,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>304</v>
       </c>
@@ -24607,7 +24607,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>305</v>
       </c>
@@ -24634,7 +24634,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>306</v>
       </c>
@@ -24661,7 +24661,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>307</v>
       </c>
@@ -24688,7 +24688,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>322</v>
       </c>
@@ -24715,7 +24715,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>323</v>
       </c>
@@ -24742,7 +24742,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>324</v>
       </c>
@@ -24769,7 +24769,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>342</v>
       </c>
@@ -24796,7 +24796,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>345</v>
       </c>
@@ -24823,7 +24823,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>346</v>
       </c>
@@ -24850,7 +24850,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>347</v>
       </c>
@@ -24877,7 +24877,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>348</v>
       </c>
@@ -24904,7 +24904,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>349</v>
       </c>
@@ -24931,7 +24931,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>374</v>
       </c>
@@ -24994,26 +24994,26 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -25063,7 +25063,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>379</v>
       </c>
@@ -25090,7 +25090,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>386</v>
       </c>
@@ -25117,7 +25117,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>391</v>
       </c>
@@ -25144,7 +25144,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>395</v>
       </c>
@@ -25171,7 +25171,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>398</v>
       </c>
@@ -25198,7 +25198,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>403</v>
       </c>
@@ -25225,7 +25225,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>406</v>
       </c>
@@ -25252,7 +25252,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>409</v>
       </c>
@@ -25279,7 +25279,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>410</v>
       </c>
@@ -25306,7 +25306,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>419</v>
       </c>
@@ -25333,7 +25333,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>424</v>
       </c>
@@ -25360,7 +25360,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>426</v>
       </c>
@@ -25387,7 +25387,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>433</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>437</v>
       </c>
@@ -25441,7 +25441,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>441</v>
       </c>
@@ -25468,7 +25468,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>445</v>
       </c>
@@ -25495,7 +25495,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>449</v>
       </c>
@@ -25522,7 +25522,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>453</v>
       </c>
@@ -25549,7 +25549,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>457</v>
       </c>
@@ -25576,7 +25576,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>461</v>
       </c>
@@ -25603,7 +25603,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>466</v>
       </c>
@@ -25630,7 +25630,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>467</v>
       </c>
@@ -25697,22 +25697,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -25762,7 +25762,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>472</v>
       </c>
@@ -25789,7 +25789,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>473</v>
       </c>
@@ -25816,7 +25816,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>479</v>
       </c>
@@ -25843,7 +25843,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>483</v>
       </c>
@@ -25870,7 +25870,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>486</v>
       </c>
@@ -25897,7 +25897,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>489</v>
       </c>
@@ -25924,7 +25924,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>491</v>
       </c>
@@ -25951,7 +25951,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>495</v>
       </c>
@@ -25978,7 +25978,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>498</v>
       </c>
@@ -26005,7 +26005,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>502</v>
       </c>
@@ -26032,7 +26032,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>506</v>
       </c>
@@ -26059,7 +26059,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>510</v>
       </c>
@@ -26086,7 +26086,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>514</v>
       </c>
@@ -26113,7 +26113,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>518</v>
       </c>
@@ -26140,7 +26140,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="216.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>522</v>
       </c>
@@ -26167,7 +26167,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>526</v>
       </c>
@@ -26197,7 +26197,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>532</v>
       </c>
@@ -26224,7 +26224,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>536</v>
       </c>
@@ -26251,7 +26251,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>540</v>
       </c>
@@ -26278,7 +26278,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>547</v>
       </c>
@@ -26305,7 +26305,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>550</v>
       </c>
@@ -26332,7 +26332,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>555</v>
       </c>
@@ -26359,7 +26359,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>558</v>
       </c>
@@ -26386,7 +26386,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>559</v>
       </c>
@@ -26453,22 +26453,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2131</v>
       </c>
@@ -26518,7 +26518,7 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>566</v>
       </c>
@@ -26545,7 +26545,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>571</v>
       </c>
@@ -26572,7 +26572,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>574</v>
       </c>
@@ -26599,7 +26599,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>579</v>
       </c>
@@ -26626,7 +26626,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>583</v>
       </c>
@@ -26653,7 +26653,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>587</v>
       </c>
@@ -26680,7 +26680,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>588</v>
       </c>
@@ -26707,7 +26707,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>593</v>
       </c>
@@ -26734,7 +26734,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>599</v>
       </c>
@@ -26761,7 +26761,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>607</v>
       </c>
@@ -26788,7 +26788,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>608</v>
       </c>
@@ -26815,7 +26815,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>612</v>
       </c>
@@ -26842,7 +26842,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>616</v>
       </c>
@@ -26869,7 +26869,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>620</v>
       </c>
@@ -26896,7 +26896,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>624</v>
       </c>
@@ -26923,7 +26923,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>628</v>
       </c>
@@ -26950,7 +26950,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>632</v>
       </c>
@@ -26977,7 +26977,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>636</v>
       </c>
@@ -27004,7 +27004,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>640</v>
       </c>
@@ -27031,7 +27031,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>644</v>
       </c>
@@ -27058,7 +27058,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>649</v>
       </c>
@@ -27085,7 +27085,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>653</v>
       </c>
@@ -27112,7 +27112,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>657</v>
       </c>
@@ -27139,7 +27139,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>662</v>
       </c>
@@ -27166,7 +27166,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>666</v>
       </c>
@@ -27193,7 +27193,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>672</v>
       </c>
@@ -27220,7 +27220,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>675</v>
       </c>
@@ -27247,7 +27247,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>678</v>
       </c>
@@ -27274,7 +27274,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>681</v>
       </c>
@@ -27301,7 +27301,7 @@
       <c r="J31" s="33"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>688</v>
       </c>
@@ -27328,7 +27328,7 @@
       <c r="J32" s="33"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>689</v>
       </c>
@@ -27355,7 +27355,7 @@
       <c r="J33" s="33"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>693</v>
       </c>
@@ -27382,7 +27382,7 @@
       <c r="J34" s="33"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>697</v>
       </c>
@@ -27409,7 +27409,7 @@
       <c r="J35" s="33"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>698</v>
       </c>
@@ -27436,7 +27436,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>699</v>
       </c>
@@ -27463,7 +27463,7 @@
       <c r="J37" s="33"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>723</v>
       </c>
@@ -27490,7 +27490,7 @@
       <c r="J38" s="33"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>724</v>
       </c>
